--- a/biology/Zoologie/Himerometra/Himerometra.xlsx
+++ b/biology/Zoologie/Himerometra/Himerometra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himerometra est un genre de crinoïdes de la famille des Himerometridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des comatules de grande taille, portant rarement moins de 30 bras, mesurant généralement 13-15 cm de long[1].
-On trouve des espèces de ce genre dans l'indo-pacifique, de la zone intertidale à plus de 57 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des comatules de grande taille, portant rarement moins de 30 bras, mesurant généralement 13-15 cm de long.
+On trouve des espèces de ce genre dans l'indo-pacifique, de la zone intertidale à plus de 57 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014) :
 Himerometra bartschi AH Clark, 1908 -- Indonésie et Philippines, de la surface à 51 m de profondeur.
 Himerometra martensi (Hartlaub, 1890) -- Indonésie, espèce littorale
 Himerometra persica AH Clark, 1907 -- Indo-Pacifique (du Golfe Persique à l'Australie), 0-12 m de profondeur
